--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H2">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I2">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J2">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3675875</v>
+        <v>0.8918855</v>
       </c>
       <c r="N2">
-        <v>0.735175</v>
+        <v>1.783771</v>
       </c>
       <c r="O2">
-        <v>0.0828918934338413</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P2">
-        <v>0.0683447967221643</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q2">
-        <v>16.70707444923125</v>
+        <v>69.79392275258151</v>
       </c>
       <c r="R2">
-        <v>66.828297796925</v>
+        <v>279.175691010326</v>
       </c>
       <c r="S2">
-        <v>0.009055463228738245</v>
+        <v>0.0285178680596922</v>
       </c>
       <c r="T2">
-        <v>0.005567716682103204</v>
+        <v>0.01968905681773387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H3">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I3">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J3">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.83195</v>
       </c>
       <c r="O3">
-        <v>0.2128705842010105</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P3">
-        <v>0.2632693536604661</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q3">
-        <v>42.90461408190833</v>
+        <v>73.87080499278333</v>
       </c>
       <c r="R3">
-        <v>257.42768449145</v>
+        <v>443.2248299567</v>
       </c>
       <c r="S3">
-        <v>0.02325488860078691</v>
+        <v>0.03018368630339706</v>
       </c>
       <c r="T3">
-        <v>0.02144726800813707</v>
+        <v>0.0312587347002398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H4">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I4">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J4">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,95 +685,95 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.1791815</v>
+        <v>3.7938645</v>
       </c>
       <c r="N4">
-        <v>4.358363</v>
+        <v>7.587729</v>
       </c>
       <c r="O4">
-        <v>0.4914108359805446</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P4">
-        <v>0.4051707869233885</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q4">
-        <v>99.04511866939825</v>
+        <v>296.8864118171685</v>
       </c>
       <c r="R4">
-        <v>396.180474677593</v>
+        <v>1187.545647268674</v>
       </c>
       <c r="S4">
-        <v>0.05368381117964199</v>
+        <v>0.1213080908338011</v>
       </c>
       <c r="T4">
-        <v>0.03300728449928434</v>
+        <v>0.08375247013129322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.4506055</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H5">
-        <v>90.901211</v>
+        <v>240.777241</v>
       </c>
       <c r="I5">
-        <v>0.1092442560256595</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J5">
-        <v>0.08146511437786728</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.5468423333333333</v>
+        <v>0.8918855</v>
       </c>
       <c r="N5">
-        <v>1.640527</v>
+        <v>1.783771</v>
       </c>
       <c r="O5">
-        <v>0.123314303178916</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P5">
-        <v>0.1525099252997205</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q5">
-        <v>24.85431516303283</v>
+        <v>71.58190999263516</v>
       </c>
       <c r="R5">
-        <v>149.125890978197</v>
+        <v>429.491459955811</v>
       </c>
       <c r="S5">
-        <v>0.0134713793081033</v>
+        <v>0.02924844147057527</v>
       </c>
       <c r="T5">
-        <v>0.01242423850830173</v>
+        <v>0.03029017937485344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.4506055</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H6">
-        <v>90.901211</v>
+        <v>240.777241</v>
       </c>
       <c r="I6">
-        <v>0.1092442560256595</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J6">
-        <v>0.08146511437786728</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3969463333333333</v>
+        <v>0.9439833333333333</v>
       </c>
       <c r="N6">
-        <v>1.190839</v>
+        <v>2.83195</v>
       </c>
       <c r="O6">
-        <v>0.08951238320568766</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P6">
-        <v>0.1107051373942604</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q6">
-        <v>18.04145120100484</v>
+        <v>75.76323418332777</v>
       </c>
       <c r="R6">
-        <v>108.248707206029</v>
+        <v>681.86910764995</v>
       </c>
       <c r="S6">
-        <v>0.009778713708389088</v>
+        <v>0.03095693480183112</v>
       </c>
       <c r="T6">
-        <v>0.009018606680040939</v>
+        <v>0.0480892858335606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>240.777241</v>
       </c>
       <c r="I7">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J7">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3675875</v>
+        <v>3.7938645</v>
       </c>
       <c r="N7">
-        <v>0.735175</v>
+        <v>7.587729</v>
       </c>
       <c r="O7">
-        <v>0.0828918934338413</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P7">
-        <v>0.0683447967221643</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q7">
-        <v>29.50223469202917</v>
+        <v>304.4920756792815</v>
       </c>
       <c r="R7">
-        <v>177.013408152175</v>
+        <v>1826.952454075689</v>
       </c>
       <c r="S7">
-        <v>0.01599061536662804</v>
+        <v>0.124415772849254</v>
       </c>
       <c r="T7">
-        <v>0.01474765238701257</v>
+        <v>0.1288470731152022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.25908033333333</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H8">
-        <v>240.777241</v>
+        <v>221.777512</v>
       </c>
       <c r="I8">
-        <v>0.1929092786303725</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J8">
-        <v>0.2157831041178573</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.9439833333333333</v>
+        <v>0.8918855</v>
       </c>
       <c r="N8">
-        <v>2.83195</v>
+        <v>1.783771</v>
       </c>
       <c r="O8">
-        <v>0.2128705842010105</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P8">
-        <v>0.2632693536604661</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q8">
-        <v>75.76323418332777</v>
+        <v>65.93338239295866</v>
       </c>
       <c r="R8">
-        <v>681.86910764995</v>
+        <v>395.600294357752</v>
       </c>
       <c r="S8">
-        <v>0.04106471083984291</v>
+        <v>0.0269404473291635</v>
       </c>
       <c r="T8">
-        <v>0.05680907835195736</v>
+        <v>0.02789998170877252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.25908033333333</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H9">
-        <v>240.777241</v>
+        <v>221.777512</v>
       </c>
       <c r="I9">
-        <v>0.1929092786303725</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J9">
-        <v>0.2157831041178573</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.1791815</v>
+        <v>0.9439833333333333</v>
       </c>
       <c r="N9">
-        <v>4.358363</v>
+        <v>2.83195</v>
       </c>
       <c r="O9">
-        <v>0.4914108359805446</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P9">
-        <v>0.4051707869233885</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q9">
-        <v>174.8991030694138</v>
+        <v>69.78475834537778</v>
       </c>
       <c r="R9">
-        <v>1049.394618416483</v>
+        <v>628.0628251084</v>
       </c>
       <c r="S9">
-        <v>0.09479770988015516</v>
+        <v>0.0285141234735567</v>
       </c>
       <c r="T9">
-        <v>0.08742901010020372</v>
+        <v>0.04429456090504798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.25908033333333</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H10">
-        <v>240.777241</v>
+        <v>221.777512</v>
       </c>
       <c r="I10">
-        <v>0.1929092786303725</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J10">
-        <v>0.2157831041178573</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5468423333333333</v>
+        <v>3.7938645</v>
       </c>
       <c r="N10">
-        <v>1.640527</v>
+        <v>7.587729</v>
       </c>
       <c r="O10">
-        <v>0.123314303178916</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P10">
-        <v>0.1525099252997205</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q10">
-        <v>43.88906276066744</v>
+        <v>280.464609891708</v>
       </c>
       <c r="R10">
-        <v>395.001564846007</v>
+        <v>1682.787659350248</v>
       </c>
       <c r="S10">
-        <v>0.02378847327105174</v>
+        <v>0.1145981258090116</v>
       </c>
       <c r="T10">
-        <v>0.03290906508995623</v>
+        <v>0.1186797522277931</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.25908033333333</v>
+        <v>64.0114765</v>
       </c>
       <c r="H11">
-        <v>240.777241</v>
+        <v>128.022953</v>
       </c>
       <c r="I11">
-        <v>0.1929092786303725</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J11">
-        <v>0.2157831041178573</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.3969463333333333</v>
+        <v>0.8918855</v>
       </c>
       <c r="N11">
-        <v>1.190839</v>
+        <v>1.783771</v>
       </c>
       <c r="O11">
-        <v>0.08951238320568766</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P11">
-        <v>0.1107051373942604</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q11">
-        <v>31.85854765502211</v>
+        <v>57.09090772394075</v>
       </c>
       <c r="R11">
-        <v>286.726928895199</v>
+        <v>228.363630895763</v>
       </c>
       <c r="S11">
-        <v>0.01726776927269468</v>
+        <v>0.02332740315587412</v>
       </c>
       <c r="T11">
-        <v>0.0238882981887274</v>
+        <v>0.01610550147664676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>82.109515</v>
+        <v>64.0114765</v>
       </c>
       <c r="H12">
-        <v>246.328545</v>
+        <v>128.022953</v>
       </c>
       <c r="I12">
-        <v>0.1973569500367323</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J12">
-        <v>0.2207581491181523</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3675875</v>
+        <v>0.9439833333333333</v>
       </c>
       <c r="N12">
-        <v>0.735175</v>
+        <v>2.83195</v>
       </c>
       <c r="O12">
-        <v>0.0828918934338413</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P12">
-        <v>0.0683447967221643</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q12">
-        <v>30.1824313450625</v>
+        <v>60.42576695805833</v>
       </c>
       <c r="R12">
-        <v>181.094588070375</v>
+        <v>362.55460174835</v>
       </c>
       <c r="S12">
-        <v>0.01635929127087276</v>
+        <v>0.02469003004207667</v>
       </c>
       <c r="T12">
-        <v>0.01508767082624136</v>
+        <v>0.02556941160428653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>82.109515</v>
+        <v>64.0114765</v>
       </c>
       <c r="H13">
-        <v>246.328545</v>
+        <v>128.022953</v>
       </c>
       <c r="I13">
-        <v>0.1973569500367323</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J13">
-        <v>0.2207581491181523</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9439833333333333</v>
+        <v>3.7938645</v>
       </c>
       <c r="N13">
-        <v>2.83195</v>
+        <v>7.587729</v>
       </c>
       <c r="O13">
-        <v>0.2128705842010105</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P13">
-        <v>0.2632693536604661</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q13">
-        <v>77.51001366808333</v>
+        <v>242.8508682859342</v>
       </c>
       <c r="R13">
-        <v>697.59012301275</v>
+        <v>971.403473143737</v>
       </c>
       <c r="S13">
-        <v>0.04201148925044885</v>
+        <v>0.09922911260499112</v>
       </c>
       <c r="T13">
-        <v>0.05811885523361676</v>
+        <v>0.06850889526396349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>82.109515</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H14">
-        <v>246.328545</v>
+        <v>169.458305</v>
       </c>
       <c r="I14">
-        <v>0.1973569500367323</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J14">
-        <v>0.2207581491181523</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>2.1791815</v>
+        <v>0.8918855</v>
       </c>
       <c r="N14">
-        <v>4.358363</v>
+        <v>1.783771</v>
       </c>
       <c r="O14">
-        <v>0.4914108359805446</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P14">
-        <v>0.4051707869233885</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q14">
-        <v>178.9315360619725</v>
+        <v>50.37913502802583</v>
       </c>
       <c r="R14">
-        <v>1073.589216371835</v>
+        <v>302.274810168155</v>
       </c>
       <c r="S14">
-        <v>0.0969833438041212</v>
+        <v>0.02058496598312377</v>
       </c>
       <c r="T14">
-        <v>0.08944475299795253</v>
+        <v>0.02131813801707539</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>82.109515</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H15">
-        <v>246.328545</v>
+        <v>169.458305</v>
       </c>
       <c r="I15">
-        <v>0.1973569500367323</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J15">
-        <v>0.2207581491181523</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5468423333333333</v>
+        <v>0.9439833333333333</v>
       </c>
       <c r="N15">
-        <v>1.640527</v>
+        <v>2.83195</v>
       </c>
       <c r="O15">
-        <v>0.123314303178916</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P15">
-        <v>0.1525099252997205</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q15">
-        <v>44.90095877146833</v>
+        <v>53.32193853830555</v>
       </c>
       <c r="R15">
-        <v>404.108628943215</v>
+        <v>479.89744684475</v>
       </c>
       <c r="S15">
-        <v>0.02433693477129579</v>
+        <v>0.02178739850048291</v>
       </c>
       <c r="T15">
-        <v>0.03366780883131398</v>
+        <v>0.03384509612358125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>82.109515</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H16">
-        <v>246.328545</v>
+        <v>169.458305</v>
       </c>
       <c r="I16">
-        <v>0.1973569500367323</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J16">
-        <v>0.2207581491181523</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3969463333333333</v>
+        <v>3.7938645</v>
       </c>
       <c r="N16">
-        <v>1.190839</v>
+        <v>7.587729</v>
       </c>
       <c r="O16">
-        <v>0.08951238320568766</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P16">
-        <v>0.1107051373942604</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q16">
-        <v>32.59307091102833</v>
+        <v>214.3006158565575</v>
       </c>
       <c r="R16">
-        <v>293.337638199255</v>
+        <v>1285.803695139345</v>
       </c>
       <c r="S16">
-        <v>0.01766589093999374</v>
+        <v>0.08756345032751497</v>
       </c>
       <c r="T16">
-        <v>0.02443906122902769</v>
+        <v>0.09068218625494273</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>86.856657</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H17">
-        <v>173.713314</v>
+        <v>245.358787</v>
       </c>
       <c r="I17">
-        <v>0.2087670949695245</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J17">
-        <v>0.1556808191913788</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.3675875</v>
+        <v>0.8918855</v>
       </c>
       <c r="N17">
-        <v>0.735175</v>
+        <v>1.783771</v>
       </c>
       <c r="O17">
-        <v>0.0828918934338413</v>
+        <v>0.1584241112663714</v>
       </c>
       <c r="P17">
-        <v>0.0683447967221643</v>
+        <v>0.1461694029147495</v>
       </c>
       <c r="Q17">
-        <v>31.9274214049875</v>
+        <v>72.94398147429617</v>
       </c>
       <c r="R17">
-        <v>127.70968561995</v>
+        <v>437.663888845777</v>
       </c>
       <c r="S17">
-        <v>0.01730509978870645</v>
+        <v>0.02980498526794252</v>
       </c>
       <c r="T17">
-        <v>0.0106399739411748</v>
+        <v>0.03086654551966753</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>86.856657</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H18">
-        <v>173.713314</v>
+        <v>245.358787</v>
       </c>
       <c r="I18">
-        <v>0.2087670949695245</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J18">
-        <v>0.1556808191913788</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>2.83195</v>
       </c>
       <c r="O18">
-        <v>0.2128705842010105</v>
+        <v>0.1676781611917675</v>
       </c>
       <c r="P18">
-        <v>0.2632693536604661</v>
+        <v>0.2320614252526949</v>
       </c>
       <c r="Q18">
-        <v>81.99123659704999</v>
+        <v>77.20486853829445</v>
       </c>
       <c r="R18">
-        <v>491.9474195823</v>
+        <v>694.8438168446501</v>
       </c>
       <c r="S18">
-        <v>0.04444037346811053</v>
+        <v>0.03154598807042303</v>
       </c>
       <c r="T18">
-        <v>0.04098598864584618</v>
+        <v>0.0490043360859788</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>86.856657</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H19">
-        <v>173.713314</v>
+        <v>245.358787</v>
       </c>
       <c r="I19">
-        <v>0.2087670949695245</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J19">
-        <v>0.1556808191913788</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.1791815</v>
+        <v>3.7938645</v>
       </c>
       <c r="N19">
-        <v>4.358363</v>
+        <v>7.587729</v>
       </c>
       <c r="O19">
-        <v>0.4914108359805446</v>
+        <v>0.6738977275418611</v>
       </c>
       <c r="P19">
-        <v>0.4051707869233885</v>
+        <v>0.6217691718325555</v>
       </c>
       <c r="Q19">
-        <v>189.2764200862455</v>
+        <v>310.2859972541205</v>
       </c>
       <c r="R19">
-        <v>757.1056803449819</v>
+        <v>1861.715983524723</v>
       </c>
       <c r="S19">
-        <v>0.1025904126642038</v>
+        <v>0.1267831751172882</v>
       </c>
       <c r="T19">
-        <v>0.06307732002064871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>86.856657</v>
-      </c>
-      <c r="H20">
-        <v>173.713314</v>
-      </c>
-      <c r="I20">
-        <v>0.2087670949695245</v>
-      </c>
-      <c r="J20">
-        <v>0.1556808191913788</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.5468423333333333</v>
-      </c>
-      <c r="N20">
-        <v>1.640527</v>
-      </c>
-      <c r="O20">
-        <v>0.123314303178916</v>
-      </c>
-      <c r="P20">
-        <v>0.1525099252997205</v>
-      </c>
-      <c r="Q20">
-        <v>47.49689697941299</v>
-      </c>
-      <c r="R20">
-        <v>284.981381876478</v>
-      </c>
-      <c r="S20">
-        <v>0.02574396884285349</v>
-      </c>
-      <c r="T20">
-        <v>0.02374287010547648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>86.856657</v>
-      </c>
-      <c r="H21">
-        <v>173.713314</v>
-      </c>
-      <c r="I21">
-        <v>0.2087670949695245</v>
-      </c>
-      <c r="J21">
-        <v>0.1556808191913788</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.3969463333333333</v>
-      </c>
-      <c r="N21">
-        <v>1.190839</v>
-      </c>
-      <c r="O21">
-        <v>0.08951238320568766</v>
-      </c>
-      <c r="P21">
-        <v>0.1107051373942604</v>
-      </c>
-      <c r="Q21">
-        <v>34.477431521741</v>
-      </c>
-      <c r="R21">
-        <v>206.864589130446</v>
-      </c>
-      <c r="S21">
-        <v>0.01868724020565026</v>
-      </c>
-      <c r="T21">
-        <v>0.01723466647823261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>43.48344933333334</v>
-      </c>
-      <c r="H22">
-        <v>130.450348</v>
-      </c>
-      <c r="I22">
-        <v>0.1045160349260795</v>
-      </c>
-      <c r="J22">
-        <v>0.1169088112638301</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.3675875</v>
-      </c>
-      <c r="N22">
-        <v>0.735175</v>
-      </c>
-      <c r="O22">
-        <v>0.0828918934338413</v>
-      </c>
-      <c r="P22">
-        <v>0.0683447967221643</v>
-      </c>
-      <c r="Q22">
-        <v>15.98397243181667</v>
-      </c>
-      <c r="R22">
-        <v>95.90383459090002</v>
-      </c>
-      <c r="S22">
-        <v>0.008663532029220218</v>
-      </c>
-      <c r="T22">
-        <v>0.007990108940856337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>43.48344933333334</v>
-      </c>
-      <c r="H23">
-        <v>130.450348</v>
-      </c>
-      <c r="I23">
-        <v>0.1045160349260795</v>
-      </c>
-      <c r="J23">
-        <v>0.1169088112638301</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.9439833333333333</v>
-      </c>
-      <c r="N23">
-        <v>2.83195</v>
-      </c>
-      <c r="O23">
-        <v>0.2128705842010105</v>
-      </c>
-      <c r="P23">
-        <v>0.2632693536604661</v>
-      </c>
-      <c r="Q23">
-        <v>41.04765144651112</v>
-      </c>
-      <c r="R23">
-        <v>369.4288630186001</v>
-      </c>
-      <c r="S23">
-        <v>0.02224838941308777</v>
-      </c>
-      <c r="T23">
-        <v>0.03077850717864196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>43.48344933333334</v>
-      </c>
-      <c r="H24">
-        <v>130.450348</v>
-      </c>
-      <c r="I24">
-        <v>0.1045160349260795</v>
-      </c>
-      <c r="J24">
-        <v>0.1169088112638301</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.1791815</v>
-      </c>
-      <c r="N24">
-        <v>4.358363</v>
-      </c>
-      <c r="O24">
-        <v>0.4914108359805446</v>
-      </c>
-      <c r="P24">
-        <v>0.4051707869233885</v>
-      </c>
-      <c r="Q24">
-        <v>94.75832834338735</v>
-      </c>
-      <c r="R24">
-        <v>568.5499700603241</v>
-      </c>
-      <c r="S24">
-        <v>0.05136031209639653</v>
-      </c>
-      <c r="T24">
-        <v>0.04736803505804393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>43.48344933333334</v>
-      </c>
-      <c r="H25">
-        <v>130.450348</v>
-      </c>
-      <c r="I25">
-        <v>0.1045160349260795</v>
-      </c>
-      <c r="J25">
-        <v>0.1169088112638301</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.5468423333333333</v>
-      </c>
-      <c r="N25">
-        <v>1.640527</v>
-      </c>
-      <c r="O25">
-        <v>0.123314303178916</v>
-      </c>
-      <c r="P25">
-        <v>0.1525099252997205</v>
-      </c>
-      <c r="Q25">
-        <v>23.77859089482178</v>
-      </c>
-      <c r="R25">
-        <v>214.007318053396</v>
-      </c>
-      <c r="S25">
-        <v>0.01288832201793274</v>
-      </c>
-      <c r="T25">
-        <v>0.01782975407272585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>43.48344933333334</v>
-      </c>
-      <c r="H26">
-        <v>130.450348</v>
-      </c>
-      <c r="I26">
-        <v>0.1045160349260795</v>
-      </c>
-      <c r="J26">
-        <v>0.1169088112638301</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.3969463333333333</v>
-      </c>
-      <c r="N26">
-        <v>1.190839</v>
-      </c>
-      <c r="O26">
-        <v>0.08951238320568766</v>
-      </c>
-      <c r="P26">
-        <v>0.1107051373942604</v>
-      </c>
-      <c r="Q26">
-        <v>17.26059577355245</v>
-      </c>
-      <c r="R26">
-        <v>155.345361961972</v>
-      </c>
-      <c r="S26">
-        <v>0.009355479369442265</v>
-      </c>
-      <c r="T26">
-        <v>0.01294240601356197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>77.88641600000001</v>
-      </c>
-      <c r="H27">
-        <v>233.659248</v>
-      </c>
-      <c r="I27">
-        <v>0.1872063854116316</v>
-      </c>
-      <c r="J27">
-        <v>0.2094040019309144</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.5</v>
-      </c>
-      <c r="M27">
-        <v>0.3675875</v>
-      </c>
-      <c r="N27">
-        <v>0.735175</v>
-      </c>
-      <c r="O27">
-        <v>0.0828918934338413</v>
-      </c>
-      <c r="P27">
-        <v>0.0683447967221643</v>
-      </c>
-      <c r="Q27">
-        <v>28.63007294140001</v>
-      </c>
-      <c r="R27">
-        <v>171.7804376484</v>
-      </c>
-      <c r="S27">
-        <v>0.01551789174967559</v>
-      </c>
-      <c r="T27">
-        <v>0.01431167394477605</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>77.88641600000001</v>
-      </c>
-      <c r="H28">
-        <v>233.659248</v>
-      </c>
-      <c r="I28">
-        <v>0.1872063854116316</v>
-      </c>
-      <c r="J28">
-        <v>0.2094040019309144</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.9439833333333333</v>
-      </c>
-      <c r="N28">
-        <v>2.83195</v>
-      </c>
-      <c r="O28">
-        <v>0.2128705842010105</v>
-      </c>
-      <c r="P28">
-        <v>0.2632693536604661</v>
-      </c>
-      <c r="Q28">
-        <v>73.52347859706667</v>
-      </c>
-      <c r="R28">
-        <v>661.7113073736001</v>
-      </c>
-      <c r="S28">
-        <v>0.03985073262873356</v>
-      </c>
-      <c r="T28">
-        <v>0.05512965624226684</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>77.88641600000001</v>
-      </c>
-      <c r="H29">
-        <v>233.659248</v>
-      </c>
-      <c r="I29">
-        <v>0.1872063854116316</v>
-      </c>
-      <c r="J29">
-        <v>0.2094040019309144</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>2.1791815</v>
-      </c>
-      <c r="N29">
-        <v>4.358363</v>
-      </c>
-      <c r="O29">
-        <v>0.4914108359805446</v>
-      </c>
-      <c r="P29">
-        <v>0.4051707869233885</v>
-      </c>
-      <c r="Q29">
-        <v>169.728636848504</v>
-      </c>
-      <c r="R29">
-        <v>1018.371821091024</v>
-      </c>
-      <c r="S29">
-        <v>0.09199524635602593</v>
-      </c>
-      <c r="T29">
-        <v>0.08484438424725538</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>77.88641600000001</v>
-      </c>
-      <c r="H30">
-        <v>233.659248</v>
-      </c>
-      <c r="I30">
-        <v>0.1872063854116316</v>
-      </c>
-      <c r="J30">
-        <v>0.2094040019309144</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.5468423333333333</v>
-      </c>
-      <c r="N30">
-        <v>1.640527</v>
-      </c>
-      <c r="O30">
-        <v>0.123314303178916</v>
-      </c>
-      <c r="P30">
-        <v>0.1525099252997205</v>
-      </c>
-      <c r="Q30">
-        <v>42.59158946041067</v>
-      </c>
-      <c r="R30">
-        <v>383.3243051436961</v>
-      </c>
-      <c r="S30">
-        <v>0.02308522496767895</v>
-      </c>
-      <c r="T30">
-        <v>0.03193618869194629</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>77.88641600000001</v>
-      </c>
-      <c r="H31">
-        <v>233.659248</v>
-      </c>
-      <c r="I31">
-        <v>0.1872063854116316</v>
-      </c>
-      <c r="J31">
-        <v>0.2094040019309144</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.3969463333333333</v>
-      </c>
-      <c r="N31">
-        <v>1.190839</v>
-      </c>
-      <c r="O31">
-        <v>0.08951238320568766</v>
-      </c>
-      <c r="P31">
-        <v>0.1107051373942604</v>
-      </c>
-      <c r="Q31">
-        <v>30.91672724767467</v>
-      </c>
-      <c r="R31">
-        <v>278.250545229072</v>
-      </c>
-      <c r="S31">
-        <v>0.01675728970951763</v>
-      </c>
-      <c r="T31">
-        <v>0.02318209880466986</v>
+        <v>0.1312987948393608</v>
       </c>
     </row>
   </sheetData>
